--- a/crhservice/Public/resource/templatefile/YicheYiDangChaXun.xlsx
+++ b/crhservice/Public/resource/templatefile/YicheYiDangChaXun.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\SVN\crhservice\Public\resource\templatefile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\GitHub\CRHFuWubu\crhservice\Public\resource\templatefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="138" windowWidth="19398" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="一车一档查询" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>作业时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>一列位左</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一列位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -236,6 +232,18 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>一列位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一列位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一列位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -382,13 +390,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -498,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -531,69 +532,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,28 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -823,14 +739,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -843,30 +756,27 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,34 +788,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,19 +827,19 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,38 +866,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1116,23 +1026,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1168,23 +1061,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1364,48 +1240,51 @@
   <sheetPr>
     <tabColor indexed="39"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="6.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.62890625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.47265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.62890625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.20703125" style="3" customWidth="1"/>
+    <col min="9" max="16" width="5.26171875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.734375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:16" ht="0.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:17" ht="1.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
@@ -1413,426 +1292,432 @@
         <v>0</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="51"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="39"/>
+    </row>
+    <row r="9" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="K24" s="35"/>
+      <c r="N24" s="35"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="M25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="39"/>
+    </row>
+    <row r="62" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="54"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-    </row>
-    <row r="23" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="K24" s="38"/>
-      <c r="N24" s="38"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D25" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="M25" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="42"/>
-    </row>
-    <row r="59" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="O60" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60" s="55" t="s">
-        <v>24</v>
-      </c>
+      <c r="N63" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q63" s="44"/>
+    </row>
+    <row r="65" spans="8:8" ht="14.1" x14ac:dyDescent="0.4">
+      <c r="H65" s="52"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/crhservice/Public/resource/templatefile/YicheYiDangChaXun.xlsx
+++ b/crhservice/Public/resource/templatefile/YicheYiDangChaXun.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="138" windowWidth="19398" windowHeight="7608"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="19410" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="一车一档查询" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>作业时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工长：</t>
-  </si>
-  <si>
-    <t>调度员：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值班员：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -112,17 +101,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>值班主任：</t>
-  </si>
-  <si>
     <t>车组类型</t>
   </si>
   <si>
     <t>一列位左</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一列位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -232,18 +214,6 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>一列位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一列位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一列位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -252,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -341,13 +311,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -499,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -640,6 +603,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,35 +765,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -809,52 +807,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,22 +852,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -899,7 +882,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,6 +1057,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1061,6 +1109,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1240,32 +1305,38 @@
   <sheetPr>
     <tabColor indexed="39"/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.62890625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.47265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.62890625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.20703125" style="3" customWidth="1"/>
-    <col min="9" max="16" width="5.26171875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="1.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="5.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="1.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="1.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1283,41 +1354,41 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
-        <v>5</v>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>31</v>
+      <c r="D4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="49" t="s">
-        <v>32</v>
+      <c r="G4" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="49" t="s">
-        <v>28</v>
+      <c r="I4" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="K4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="51"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
@@ -1335,398 +1406,780 @@
       <c r="O5" s="12"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46" t="s">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39"/>
-    </row>
-    <row r="9" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="K9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="L9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="M9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="N9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="O9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="P9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-    </row>
-    <row r="23" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="K24" s="35"/>
-      <c r="N24" s="35"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="38"/>
-      <c r="M25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="39"/>
-    </row>
-    <row r="62" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="K63" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="N63" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q63" s="44"/>
-    </row>
-    <row r="65" spans="8:8" ht="14.1" x14ac:dyDescent="0.4">
-      <c r="H65" s="52"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="32"/>
+    </row>
+    <row r="83" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="33"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H86" s="44"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="A11:P22" name="区域1"/>
+    <protectedRange sqref="A10:P45" name="区域1"/>
   </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
